--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130577.523908903</v>
+        <v>1124573.314093624</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10884073.25903679</v>
+        <v>11140506.23072044</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>145.5148414048718</v>
+        <v>74.322627841559</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>82.70057996958593</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492382</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>34.98723076369706</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>209.5675193320712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>22.58405532019194</v>
+        <v>106.6467061034381</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.17172968953256</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>42.20606459030861</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>23.79925355567548</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168.1742963765274</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>115.2302178375793</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>70.30034983101375</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>211.147499124903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>26.13627195705825</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.01175877060142</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189153</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428628</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520906</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>107.4021082756248</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2123.189610021303</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997114</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2513.328941997114</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2123.189610021303</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>883.4114536130581</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>714.4752706851513</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>564.3586312728155</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>416.4455376904224</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>269.555590192512</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>101.852753567231</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>101.852753567231</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>1285.852497586828</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>1065.059918443298</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1622.966029581744</v>
+        <v>1406.118102925817</v>
       </c>
       <c r="V10" t="n">
-        <v>1622.966029581744</v>
+        <v>1151.43361471993</v>
       </c>
       <c r="W10" t="n">
-        <v>1333.548859544783</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X10" t="n">
-        <v>1105.559308646766</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.904841306683</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.942324366272</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3268.866700710654</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3268.866700710654</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3015.33622398449</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2684.273336640919</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2331.504681370805</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2331.504681370805</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2331.504681370805</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>136.4490515230311</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2731.767278738087</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>2731.767278738087</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2731.767278738087</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1615.697475415547</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1326.59460854119</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1071.910120335303</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>782.4929502983425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>554.5033994003252</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>333.710820256795</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.65264778894</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861033</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448698</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4670.716426881531</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4487.861592536436</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.260127559377</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903575</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697688</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660728</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.09369176271</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.30111261918</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400759</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>344.917417812169</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>344.917417812169</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.917417812169</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.917417812169</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270489</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703156</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3227.225672628157</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>3058.28948970025</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>2908.172850287915</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>2760.259756705521</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>2613.369809207611</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>2446.173709922491</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>4690.833152398593</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>4401.757925742791</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>4147.073437536905</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>3857.656267499944</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>3629.666716601927</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>3408.874137458397</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7551,22 +7551,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53.01603209864327</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>98.08864825591527</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.6576838054099</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>31.20374480898987</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>78.31512318719861</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>75.37549921168798</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.8202214113359</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823016</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193758</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>32.89260457059909</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>975703.0709607549</v>
+        <v>975703.070960755</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812322.1739518855</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812322.1739518855</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.2460059791</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719632</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26349,7 +26349,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545131</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
@@ -26426,10 +26426,10 @@
         <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.2349971284</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1055543.67960518</v>
       </c>
       <c r="C6" t="n">
-        <v>273201.0661224128</v>
+        <v>273201.0661224124</v>
       </c>
       <c r="D6" t="n">
         <v>273201.0661224128</v>
       </c>
       <c r="E6" t="n">
-        <v>306240.0882580371</v>
+        <v>25449.94771932877</v>
       </c>
       <c r="F6" t="n">
-        <v>306240.0882580373</v>
+        <v>350862.4095266837</v>
       </c>
       <c r="G6" t="n">
-        <v>41366.7553212208</v>
+        <v>350862.4095266836</v>
       </c>
       <c r="H6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266839</v>
       </c>
       <c r="I6" t="n">
-        <v>351209.7887810407</v>
+        <v>350862.4095266838</v>
       </c>
       <c r="J6" t="n">
-        <v>133678.5863837633</v>
+        <v>133331.2071294062</v>
       </c>
       <c r="K6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266838</v>
       </c>
       <c r="L6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266839</v>
       </c>
       <c r="M6" t="n">
-        <v>351209.7887810407</v>
+        <v>265807.381591172</v>
       </c>
       <c r="N6" t="n">
-        <v>351209.7887810407</v>
+        <v>350862.4095266838</v>
       </c>
       <c r="O6" t="n">
-        <v>269073.9581855895</v>
+        <v>350862.4095266839</v>
       </c>
       <c r="P6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266838</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,37 +27020,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973555</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>219.7580503661357</v>
+        <v>290.9502639294486</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>83.32522828944229</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>61.36518964614103</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>16.14213605696597</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>274.9183408758533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>263.627782885421</v>
+        <v>179.5651321021748</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
     </row>
     <row r="38">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124573.314093624</v>
+        <v>1127728.233435846</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>1042617.113969144</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11140506.23072044</v>
+        <v>10884073.25903679</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.3978584295377</v>
       </c>
       <c r="C2" t="n">
-        <v>74.322627841559</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>82.70057996958593</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.25160695998082</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98723076369706</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>109.7811651255454</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.4583209939527</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>106.6467061034381</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>266.2755192860765</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>42.20606459030861</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.9358339830528</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>375.4632810742529</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>115.2302178375793</v>
+        <v>70.82764119510709</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>70.30034983101375</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>101.5168569947382</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060389</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.01175877060142</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428628</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189673</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2719.306689612892</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686071</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064747</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080126</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518377</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395019</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571088</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591984</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153514</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009984</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,16 +4600,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410102</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>883.4114536130581</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>714.4752706851513</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>564.3586312728155</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>416.4455376904224</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>269.555590192512</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>101.852753567231</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>101.852753567231</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W7" t="n">
-        <v>1513.842048484845</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1285.852497586828</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1065.059918443298</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1406.118102925817</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1151.43361471993</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>862.0164446829692</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286973</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5648313007904</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D13" t="n">
-        <v>598.4481918884546</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E13" t="n">
-        <v>450.5350983060615</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>303.6451508081511</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>136.4490515230311</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>677.4387267498528</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1611.504630229389</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1242.542113288978</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>856.7538606907333</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>445.7679559011257</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>452.6479724696244</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>768.5380889459586</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>454.604838556055</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5980,43 +5980,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,31 +6056,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841098</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
         <v>705.9324428257312</v>
@@ -6612,61 +6612,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,22 +6949,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400759</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812169</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.917417812169</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.917417812169</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.917417812169</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270489</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703156</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7332,31 +7332,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2390.881471216014</v>
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7548,25 +7548,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>88.40752233460643</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>98.08864825591527</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.77382140598436</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>35.45844457920055</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>31.20374480898987</v>
+        <v>75.60632145146208</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>78.31512318719861</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>65.7299641038896</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.8202214113359</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392193758</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>975703.070960755</v>
+        <v>975703.0709607549</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959376.246005979</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959376.246005979</v>
+        <v>812322.1739518854</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.2460059788</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.2460059787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="16">
@@ -26322,10 +26322,10 @@
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26334,22 +26334,22 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>1.82672692972119e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>309843.0334598196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1055543.67960518</v>
       </c>
       <c r="C6" t="n">
-        <v>273201.0661224124</v>
+        <v>273201.0661224128</v>
       </c>
       <c r="D6" t="n">
         <v>273201.0661224128</v>
       </c>
       <c r="E6" t="n">
-        <v>25449.94771932877</v>
+        <v>305892.4693282311</v>
       </c>
       <c r="F6" t="n">
-        <v>350862.4095266837</v>
+        <v>305892.4693282311</v>
       </c>
       <c r="G6" t="n">
-        <v>350862.4095266836</v>
+        <v>41332.01739578541</v>
       </c>
       <c r="H6" t="n">
-        <v>350862.4095266839</v>
+        <v>351175.0508556051</v>
       </c>
       <c r="I6" t="n">
-        <v>350862.4095266838</v>
+        <v>351175.050855605</v>
       </c>
       <c r="J6" t="n">
-        <v>133331.2071294062</v>
+        <v>133643.8484583275</v>
       </c>
       <c r="K6" t="n">
-        <v>350862.4095266838</v>
+        <v>351175.050855605</v>
       </c>
       <c r="L6" t="n">
-        <v>350862.4095266839</v>
+        <v>351175.050855605</v>
       </c>
       <c r="M6" t="n">
-        <v>265807.381591172</v>
+        <v>351175.050855605</v>
       </c>
       <c r="N6" t="n">
-        <v>350862.4095266838</v>
+        <v>351175.050855605</v>
       </c>
       <c r="O6" t="n">
-        <v>350862.4095266839</v>
+        <v>269039.2202601538</v>
       </c>
       <c r="P6" t="n">
-        <v>350862.4095266838</v>
+        <v>351175.050855605</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.33598323394284</v>
       </c>
       <c r="C2" t="n">
-        <v>290.9502639294486</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.32522828944229</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2973423161884</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.520714960759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>61.36518964614103</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>176.7418332110456</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.2247206267302</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.5207149607581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>179.5651321021748</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121655</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718169</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378065</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974579</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
